--- a/biology/Médecine/Robert_Barande/Robert_Barande.xlsx
+++ b/biology/Médecine/Robert_Barande/Robert_Barande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Barande, né le 15 septembre 1926 à Perpignan (Pyrénées-Orientales) et mort le 27 avril 2001 à Paris 4e[1], est un psychiatre et psychanalyste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Barande, né le 15 septembre 1926 à Perpignan (Pyrénées-Orientales) et mort le 27 avril 2001 à Paris 4e, est un psychiatre et psychanalyste français.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils unique d’un métayer-maraîcher français catalan et d’une maraîchère catalane française d’origine espagnole, il vit à Perpignan, y étudie à St-Louis de Gonzague ; bachelier en 1945, après une année de médecine à Toulouse, il fait ses études de médecine et de psychologie à Paris à partir de 1946. Il est interne des hôpitaux psychiatriques et diplômé de psychologie en 1953, puis docteur en médecine. Il exerce comme neuropsychiatre et chef de clinique de 1954 à 1959, notamment à l'hôpital de Ville-Évrard et à l'hôpital psychiatrique de Clermont-de-l'Oise).
-Il épouse Ilse Barande en 1954 et le couple a deux enfants. Ils publient plusieurs écrits ensemble, notamment Histoire de la psychanalyse en France qui reçoit le prix Montyon en 1977[2].
-Il est membre de la Société psychanalytique de Paris[3] et en démissionne en 1983, ainsi que de sa fonction de médecin directeur adjoint du Centre de consultations et de traitements psychanalytiques Jean-Favreau de la société psychanalytique[4].
+Il épouse Ilse Barande en 1954 et le couple a deux enfants. Ils publient plusieurs écrits ensemble, notamment Histoire de la psychanalyse en France qui reçoit le prix Montyon en 1977.
+Il est membre de la Société psychanalytique de Paris et en démissionne en 1983, ainsi que de sa fonction de médecin directeur adjoint du Centre de consultations et de traitements psychanalytiques Jean-Favreau de la société psychanalytique.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Écoute assistée et sensibilisation au processus analytique », Études freudiennes, no 5-6, p. 169-181, 1972.
 (coll.) La sexualité perverse, études psychanalytiques, Paris, Payot, 1972.
